--- a/sheets/household.xlsx
+++ b/sheets/household.xlsx
@@ -24,6 +24,7 @@
     <sheet name="cleaning" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="candles" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="candle-accessories" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="beddings" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="213">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -336,6 +337,25 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.ikea.com/gb/en/p/tillstaellning-napkin-holder-brass-colour-30350110/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napkin holder, water hyacinth, 22x13 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This decorative napkin holder is a unique piece of craftsmanship made from water hyacinth – a fast-growing tropical plant that’s harvested in waterways to control its growth so it doesn’t clog water flows.
+Water hyacinths have natural colour variations, giving every napkin holder a unique look.
+Length: 22 cm
+Width: 13 cm
+Height: 7 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/sa/en/images/products/cissan-napkin-holder-water-hyacinth__0439515_pe592120_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/sa/en/images/products/cissan-napkin-holder-water-hyacinth__0439516_pe592119_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/sa/en/p/cissan-napkin-holder-water-hyacinth-40334290/</t>
   </si>
   <si>
     <t xml:space="preserve">Armrest tray, bamboo</t>
@@ -428,6 +448,118 @@
     <t xml:space="preserve">https://www.acehardware.com/departments/home-and-decor/cleaning-and-disinfectants/floor-wax-strippers/17791</t>
   </si>
   <si>
+    <t xml:space="preserve">Scotch-Brite Handled Bath Scrubber, 1 Count (Pack of 1), White, 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Scotch-Brite
+Material:	Metal
+Surface Recommendation:	Tile,Door
+Color:	White
+Item Package: Quantity	1
+Item Dimensions: LxWxH	2.8 x 5.75 x 6.25 inches
+Model Name:	Handled Bath Scrubber
+Item Weight:	0.2 Pounds
+Number of Items:	1
+Safe on: Shower doors, tubs, floors, and more!
+Removes heel marks and wax build-up quickly and easily
+Comfortable, easy-to-hold shape
+Scotch-Brite is long-lasting and reusable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61X5Nrbdl9L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71cTieOKm6L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Scotch-Brite-Handled-Bath-Scrubber-Pack/dp/B0000AY63G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 ml Anti-bacterial Disinfectant spray for surfaces  70% alcohol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kills germs &amp; bacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebinshop.com/product-images/WhatsApp+Image+2020-11-03+at+10.52.30.jpeg/2251763000001796170/1400x1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebinshop.com/products/re-fresh-all-in-one-anti-bacterial-disinfectant-spray-for-surfaces/2251763000001796142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadazzle Natural All Purpose Cleaner and Polish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Shadazzle
+Item Form:	Bar
+Scent:	Lavender
+Specific Uses For Product:	Doors,Shower,Glass,Stove,Car
+Unit Count:	1 Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81h761r1PmL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71Hb6EANdML._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Shadazzle-Natural-Purpose-Cleaner-Polish/dp/B07CZN87WX?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadazzle Natural All Purpose Cleaner and Polish – Lemon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	SHADAZZLE
+Item form:	Solid
+Scent:	Lemon
+Specific uses for product:	Towel,Shower,Glass,Stove,Car
+Unit count:	1.00 count
+Surface recommendation:	Window, Floor, Tile, Shower, Countertop, Stone, Door
+Number of Items:	1
+Item weight:	0.66 Pounds
+Contains liquid contents
+NATURAL ALL PURPOSE CLEANER : Shadazzle is a multi purpose cleaner that works on any washable surface. It is made with natural ingredients only : clay, vegetable oil, vegetal glycerin, lemon fragrance. No harmful chemicals or phosphates !
+WHERE TO USE : any kind of metal, ceramics, porcelain, marble, wood... Very effective on stainless steel, silverware, jewelry, glass shower doors, glass stove tops, or even car wheels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51YjBrcIHML._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/513w4tv7ucL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/Shadazzle-Natural-Purpose-Cleaner-Polish/dp/B076PCXNYJ?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/Shadazzle-Natural-Purpose-Cleaner-Polish/dp/B076PCXNYJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scotchgard Stainless Steel Cleaner, Clean Polish &amp; Protect Appliances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Scotchgard
+Item form:	Foam
+Specific uses for product:	Ovens,Refrigerators
+Item volume:	495 Milliliters
+Unit count:	297 gram
+Surface recommendation:	Stone
+Number of Items: 1
+No-drip, foam formula cleans and polishes in one easy step
+Provides a long-lasting, streak-free shine
+Removes and resists fingerprints and smudges
+Ideal for refrigerators, ovens, microwaves, grills and other stainless steel appliances
+Helps keep your stainless steel surfaces looking newer, longer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51xHvPaAIwL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71wk-ptvI1S._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/Scotchgard-Stainless-Cleaner-Protect-Appliances/dp/B0845YN4QS?th=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">8 Pack Unscented candles, white, 13 ¾ "</t>
   </si>
   <si>
@@ -500,6 +632,56 @@
     <t xml:space="preserve">https://www.ikea.com/us/en/p/fenomen-unscented-block-candle-natural-30126055/</t>
   </si>
   <si>
+    <t xml:space="preserve">Flameless LED Candles, Melted Wax Effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A great gift idea, or to prepare your own home for peace, these flickering LED candles will radiate tranquility and calm the mood in any room
+Set includes:
+LED Candles 
+ - Small :7.5x7.5cm 
+ - Medium: 7.5x10cm 
+ - Large :7.5x15cm 
+ - Bag of stones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0075/0813/1940/products/image_0a3656d4-c7b1-4565-8aa0-ed5d5ea03b79_1000x.jpg?v=1633437316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://makesscents.ie/collections/just-glo/products/just-glo-led-candle-gift-set-102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENTED CANDLE 40 HOURS – THE OLPHACTORY – MINT TEA &amp; BASIL · . GRACE .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoy the benefits of taking a break; find some time for yourself… These inspiring candles made with vegetable wax will fill your home with the scents of its essential oils, all created to appreciate the cosy moment you are living, relax and enjoy it with our handmade candles. Let the perfumes of The Olphactory make your stays more special.
+The Olphactory is the embodiment of a relaxed lifestyle. Its simple and beautiful design reminds us how important disconnection and comfort are. A collection of fragrances ready to create a well-being environment that allows us to enjoy even more our home privacy. This collection is ready to follow a relaxed philosophy, created for mind-wandering thoughts and pause moments. These candles, perfumes and diffusers will help you enhance your positive side, and at the same time they will give the atmosphere a nice and serenity touch.
+While you are enjoying a cup of coffee, feel how your home is being lifted by The Olphactory and your thoughts are renewed. Combine the products in different ways and look for the perfect balance for every moment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0993/7686/products/8435474419782VV401MTTOGraceMintTea_Basil01.png?v=1622222950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0993/7686/products/8435474419782VV401MTTOGraceMintTea_Basil03.png?v=1622222969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bergamotashop.com/en/shop/the-olphactory-en/scented-candle-the-olphactory/scented-candle-40-hours-the-olphactory-mint-tea-basil-%C2%B7-grace/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcelain Aroma Pot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size: 7.6x12.3cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://img.muji.net/img/item/4550002868307_1260.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://img.muji.net/img/item/4550002868307_01_1260.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.muji.com.hk/en/product/4550002868307</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tealight holder, 4 "</t>
   </si>
   <si>
@@ -516,6 +698,120 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.ikea.com/us/en/p/paerlband-tealight-holder-50348545/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aromatherapy Candle Tool Set Candle Fire Extinguisher Bell Cover Hook Fire Extinguishing Scissors Tray 4-piece Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Stainless steel material, durable.
+- Help you quickly extinguish and adjust candles
+- Noble appearance, fine workmanship, very suitable for home decoration.
+- Widely used in dining tables, kitchens, bathroom cabinets, countertops and other places.
+- Bell jar 22.5cm*3.8cm
+- Hook 20cm*1.7cm
+- Cut 18cm*6cm
+- Tray 22cm*11cm
+- Color: black, silver, gold, rose gold
+- 4*pcs bell jar, hook, scissors, tray
+- 3*pcs bell jar, hook, scissors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ae01.alicdn.com/kf/Sa90519435cb94d0596000932fc0f1c123.jpg_640x640Q90.jpg_.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candle Holder Compatible with Bath &amp; Body Works and White Barn 3-Wick Candles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Bath &amp; Body Works
+Color:	Purple,White
+Special Feature:	Clean Burn
+Unit Count:	1 Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71aLFk9wNIL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71ywu9yiOhL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Compatible-Bath-Body-Works-Candles/dp/B09QMLGXLW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lantern for block candle, indoor/outdoor black, 11 " (28 cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lanterns always enhance a home’s decor – and when it gets dark outside, their glow creates a cozy atmosphere. The home feels warm, guests feel welcome and a romantic touch is added to every moment.
+Suitable for both indoor and outdoor use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ca/en/images/products/borrby-lantern-for-block-candle-indoor-outdoor-black__0678346_pe719246_s5.jpg?f=m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ca/en/images/products/borrby-lantern-for-block-candle-indoor-outdoor-black__0902748_pe586326_s5.jpg?f=m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ca/en/p/borrby-lantern-for-block-candle-indoor-outdoor-black-10156109/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lantern for block candle, indoor/outdoor white, 11 " (28 cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ca/en/images/products/borrby-lantern-for-block-candle-indoor-outdoor-white__0678347_pe719245_s5.jpg?f=m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ca/en/images/products/borrby-lantern-for-block-candle-indoor-outdoor-white__0902764_pe717539_s5.jpg?f=m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ca/en/p/borrby-lantern-for-block-candle-indoor-outdoor-white-30270142/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lanterns and candles always enhance a home’s decor – and when it gets dark outside, their glow creates a cozy atmosphere. The home feels warm, guests feel welcome and a romantic touch is added to every moment.
+The warm light from the candle shines decoratively through the pattern on the lantern.
+You can choose whether you want to hang the lantern or place on a flat surface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ca/en/images/products/kringsynt-lantern-f-tealight-indoor-outdoor-white__1076462_pe856793_s5.jpg?f=m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ca/en/images/products/kringsynt-lantern-f-tealight-indoor-outdoor-white__1005813_pe825545_s5.jpg?f=m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ca/en/p/kringsynt-lantern-f-tealight-indoor-outdoor-deep-green-50533562/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lantern f/tealight, indoor/outdoor, white, 8 ¾ " (22 cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lanterns always enhance a home’s decor – and when it gets dark outside, their glow creates a cozy atmosphere. The home feels warm, guests feel welcome and a romantic touch is added to every moment.
+The warm light from the candle shines decoratively through the pattern on the lantern.
+Perfect for hanging at festive occasions to set that extra party mood.
+Suitable for both indoor and outdoor use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ca/en/images/products/enrum-lantern-f-tealight-indoor-outdoor-white__1059530_pe849665_s5.jpg?f=m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ca/en/images/products/enrum-lantern-f-tealight-indoor-outdoor-white__1059527_pe849664_s5.jpg?f=m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ikea.com/ca/en/p/enrum-lantern-f-tealight-indoor-outdoor-white-90526357/#content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throw, off-white, 130x170 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This off-white knitted throw in acrylic and cotton is nice to wrap around you to feel cosy on the balcony or on the sofa indoors. A lovely and warming splash of colour that feels soft against your skin.
+Soft knitted throw that feels nice against the skin.
+Cotton is a soft and easy-care natural material that you can machine wash.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/om/en/images/products/ingabritta-throw-off-white__0603310_pe680745_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/om/en/images/products/ingabritta-throw-off-white__0890167_pe631989_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/om/en/p/ingabritta-throw-off-white-90352272/</t>
   </si>
 </sst>
 </file>
@@ -637,7 +933,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -761,13 +1057,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -810,6 +1106,26 @@
       </c>
       <c r="G2" s="0" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -831,10 +1147,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -861,42 +1177,42 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -918,10 +1234,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -948,22 +1264,22 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +1301,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1015,22 +1331,22 @@
     </row>
     <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1049,13 +1365,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1080,23 +1396,177 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1113,13 +1583,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1146,90 +1616,147 @@
     </row>
     <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>80000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>132</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>170000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1248,10 +1775,188 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1279,24 +1984,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1321,7 +2026,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1416,7 +2121,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1481,7 +2186,7 @@
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1585,7 +2290,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1666,7 +2371,7 @@
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1736,7 +2441,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1803,7 +2508,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1915,7 +2620,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/sheets/household.xlsx
+++ b/sheets/household.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="coffee-makers" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
     <sheet name="kitchen" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="napkins" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="juice-dispensers" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="calanders" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="colanders" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="napkin-holders" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="armrest-trays" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="chopping-boards" sheetId="12" state="visible" r:id="rId13"/>
@@ -25,6 +25,8 @@
     <sheet name="candles" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="candle-accessories" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="beddings" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="utensils" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="torches" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="243">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -108,6 +110,34 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.ae/Samba-Vacuum-Flask-Litre-Plastic/dp/B07X62977B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Zojirushi stainless steel pot 1.9L stainless SH-HB19-XA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type	Vacuum Server (Carafe)
+Capacity	51 oz. / 1.5L
+Dimensions (in)	5.13 x 5.13 x 9.75
+Power	Heat Retention: 163°F @ 10 hrs. / 136°F @ 24 hrsCold Retention: 47°F @ 10 hrs
+Made in	Made in China
+The Stainless Steel Vacuum Carafe features a durable stainless steel vacuum liner with excellent heat retention. Its pinch-release stopper makes it easy to remove the stopper, and the one-touch pour easy to serve. Wide opening accommodates most direct brewing attachments.
+- Unbreakable all stainless steel construction
+- Stainless steel vacuum liner with excellent heat retention
+- One-touch pour
+- Stopper disassembles for thorough cleaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tzanet.com/img/product/ZO-SH-HB15(XA)_1-B.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tzanet.com/img/product/ZO-SH-HB15(XA)_4-B.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tzanet.com/en/zo-stainless-vacuum-carafe-1-5l-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61G-cLF6M0L._AC_SL1500_.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Contigo SnapSeal Byron Stainless Steel Travel Mug</t>
@@ -321,6 +351,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.ikea.com/us/en/p/idealisk-colander-stainless-steel-black-50103755/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stainless Steel Colander (24 cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home One Stainless Steel Colander 24 cm
+With Home One Stainless Steel Colander 24 cm straining and washing food becomes easier than ever before. This corander is made using good quality material making it durable. easy to use and clean. Buy this product online today.
+It is made of 100% food grade material ensures a safe use
+Easy to use and clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.jiomart.com/images/product/original/491901677/home-one-stainless-steel-colander-24-cm-product-images-o491901677-p590309465-0-202203170524.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.jiomart.com/images/product/original/491901677/home-one-stainless-steel-colander-24-cm-product-images-o491901677-p590309465-2-202203170524.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.jiomart.com/p/groceries/home-one-stainless-steel-colander-24-cm/590309465#&amp;gid=1&amp;pid=3</t>
   </si>
   <si>
     <t xml:space="preserve">Napkin holder, brass-colour
@@ -812,6 +860,69 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.ikea.com/om/en/p/ingabritta-throw-off-white-90352272/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanette Lepore – 5 Piece Silicon Utensil Set, Silver and Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Packaging Dimension: 12L x 10W x 35H cm
+- Flexible, scrape corners easily
+- Non-sticky and super comfortable to handle
+- Soup ladle, Slotted turner, Spaghetti server, Slotted spoon, Utensil holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://b.bflcdn.com/f_auto,q_auto/products/22/3/17F0600167_TOP_JPEG_4.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://b.bflcdn.com/f_auto,q_auto/products/22/3/17F0600167_TOP_JPEG_3.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.brandsforless.com/en-bh/5-piece-silicon-utensil-set-silver-black/982677/p/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph Joseph Duo 5-piece Utensil Set with Stand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete with a stand for neat and tidy storage, this utensil set from the Joseph Joseph Duo collection includes a solid spoon, a slotted spoon, a slotted turner, a flexible turner and a ladle. Each utensil is designed with a useful integrated tool rest allowing you to keep the utensil raised off the work surface to reduce mess and improve hygiene. Items are also sold separately.
+In-store availability, prices and promotions may vary from those online.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://asda.scene7.com/is/image/Asda/5028420800401?hei=662&amp;wid=662&amp;qlt=85&amp;fmt=webp&amp;resmode=sharp&amp;op_usm=1.1,0.5,0,0&amp;defaultimage=default_details_George_rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://asda.scene7.com/is/image/Asda/5028420800401_A?hei=662&amp;wid=662&amp;qlt=85&amp;fmt=webp&amp;resmode=sharp&amp;op_usm=1.1,0.5,0,0&amp;defaultimage=default_details_George_rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://direct.asda.com/george/home/utensils-accessories/joseph-joseph-duo-5-piece-utensil-set-with-storage-stand/050006980,default,pd.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coaster, cork, 4 "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protects the table top surface and reduces noise from glasses and mugs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/ikea-365-coaster-cork__0939604_pe794628_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/ikea-365-coaster-cork__0367591_pe549316_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/p/ikea-365-coaster-cork-30282946/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Torch 31 20,000 lm Ultra-Bright Search Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• 20,000 lm Max Output, 740 m Max Beam Distance
+• Built-in 6 x 4,800 mAh Rechargeable Battery Pack
+• 4 x LED Battery Indicators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0619/6360/0111/products/Saint-Torch-31.jpg?v=1649753817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nextorch.com/products/saint-torch-31-20-000-lm-ultra-bright-search-light</t>
   </si>
 </sst>
 </file>
@@ -933,7 +1044,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1063,7 +1174,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1090,42 +1201,42 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1261,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1177,42 +1288,42 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1348,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1264,22 +1375,22 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1304,7 +1415,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1331,22 +1442,22 @@
     </row>
     <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1371,7 +1482,7 @@
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1398,119 +1509,119 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1585,11 +1696,11 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1616,147 +1727,147 @@
     </row>
     <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>80000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>170000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +1892,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1808,133 +1919,133 @@
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1956,7 +2067,74 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1984,24 +2162,122 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>209</v>
+        <v>225</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2020,13 +2296,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.36"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2071,7 +2350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2091,13 +2370,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3"/>
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2121,7 +2417,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2148,20 +2444,20 @@
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>250000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2186,7 +2482,7 @@
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2213,59 +2509,59 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +2586,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2317,36 +2613,36 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>160000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2371,7 +2667,7 @@
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2401,22 +2697,22 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2441,7 +2737,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2468,22 +2764,22 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>25000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2508,7 +2804,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2535,67 +2831,67 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2614,13 +2910,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2647,22 +2943,39 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/household.xlsx
+++ b/sheets/household.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="coffee-makers" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,6 +27,9 @@
     <sheet name="beddings" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="utensils" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="torches" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="fragrances" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="kettles" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="other" sheetId="22" state="visible" r:id="rId23"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="458">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -112,8 +115,7 @@
     <t xml:space="preserve">https://www.amazon.ae/Samba-Vacuum-Flask-Litre-Plastic/dp/B07X62977B</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Zojirushi stainless steel pot 1.9L stainless SH-HB19-XA</t>
+    <t xml:space="preserve">Zojirushi stainless steel pot 1.9L stainless SH-HB19-XA</t>
   </si>
   <si>
     <t xml:space="preserve">Type	Vacuum Server (Carafe)
@@ -137,7 +139,23 @@
     <t xml:space="preserve">https://www.tzanet.com/en/zo-stainless-vacuum-carafe-1-5l-1</t>
   </si>
   <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/61G-cLF6M0L._AC_SL1500_.jpg</t>
+    <t xml:space="preserve">Zojirushi SH-HC15-AD Stainless Steel Handy Pot 1.5L Matte Navy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zojirushi Thermal carafes are ideal for keeping drinks hot or cold for long hours. Use when you want to serve coffee with style, or have iced water close at hand to keep yourself hydrated. With vacuum insulation, the carafe can be filled with icy cold drinks and on the table without the annoyance of condensation on the outside—1.0 Litre capacity.
+   - Unbreakable all stainless steel construction
+   - Stainless steel vacuum liner with excellent heat retention
+   - Extra-wide 6cm mouth for easy cleaning
+   - One-touch pour
+   - Pinch-release stopper for easy removal
+   - Product dimensions: L16cm*W14cm*H25cm
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdnimg.webstaurantstore.com/images/products/large/690720/2372842.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hellokitchen.com.au/product/zojirushi-sh-hc15-ad-stainless-steel-handy-pot-1-5l-matte-navy/</t>
   </si>
   <si>
     <t xml:space="preserve">Contigo SnapSeal Byron Stainless Steel Travel Mug</t>
@@ -146,10 +164,13 @@
     <t xml:space="preserve">Your everyday companion – Snap to it with SnapSeal! This hard working mug allows you to snap the lid open and closed so it’s sealed shut when you’re done sipping. You’ll also love that it will keep your morning joe hot for hours, so you can take it to go.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://images.heb.com/is/image/HEBGrocery/001926974?fit=constrain,1&amp;wid=800&amp;hei=800&amp;fmt=jpg&amp;qlt=85,0&amp;resMode=sharp2&amp;op_usm=1.75,0.3,2,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.heb.com/product-detail/contigo-snapseal-byron-stainless-steel-travel-mug-monaco/1926974</t>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/71iritVHHhL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/81x1XiiWsNL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Contigo-SnapSeal-Vacuum-Insulated-Stainless-Radiant/dp/B07GDV3K4Q</t>
   </si>
   <si>
     <t xml:space="preserve">2.5 L Water Bottle, Large Capacity Kettle Drink Bottle Jug Container Gym Sports</t>
@@ -160,10 +181,7 @@
 Spiral opening mouth and spiral cap, sealed and leak-proof, is easier and more convenient to open.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://i5.walmartimages.com/asr/b7dddea9-b43b-454b-b6d5-e569d8e7caea_1.148a57692781358f6da8a848e57c3c2f.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://i5.walmartimages.com/asr/02ce082b-45b0-4341-858a-a3acabe98a96_1.3e5836f45ec10d884c52e69c35905028.jpeg?odnHeight=450&amp;odnWidth=450&amp;odnBg=ffffff</t>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/61fSSdaldYL._AC_SL1500_.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.walmart.ca/en/ip/3-78L-1-Gallon-Water-Bottle-Large-Capacity-Kettle-Drink-Bottle-Jug-Container-Gym-Sports/4EE4JXM06PY8</t>
@@ -231,6 +249,25 @@
     <t xml:space="preserve">https://d2rbyiw1vv51io.cloudfront.net/web/ikea4/images/673/0367304_PE549496_S5.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Jar with lid, clear glass, 1.9 qt (1.8 l)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KORKEN series is ideal for preserving pickles and jams, serving beverages or keeping your cookies crunchy. The airtight seal locks in all the goodness.
+The jar has an airtight seal, which makes it perfect for preserving your favorite homemade jams and jellies.
+The airtight seal helps food retain its flavor and aroma longer.
+You can reduce your food waste by storing your dry foods in a jar with an aroma-tight lid, because it keeps the food fresh longer.
+The transparent jar makes it easy to find what you are looking for, regardless of where it is placed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ca/en/images/products/korken-jar-with-lid-clear-glass__0713741_pe729737_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ca/en/images/products/korken-jar-with-lid-clear-glass__0897450_pe611666_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ca/en/p/korken-jar-with-lid-clear-glass-70227986/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coaster,
 10 cm, cork</t>
   </si>
@@ -248,6 +285,124 @@
     <t xml:space="preserve">https://www.ikea.is/en/products/cookware-tableware/coffee-and-tea/mugs-and-cups/ikea-365-coaster-art-30282946</t>
   </si>
   <si>
+    <t xml:space="preserve">BLACK+DECKER 300W HAND MIXER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using a Hand mixer ensures that your cake layers are light and airy, your frosting satiny, your cookies crisp or chewy, the pizza dough soft yet crispy - and it's speedier (and less tiring) than stirring umpteen times.
+FEATURES:
+    Warranty: 2 years
+    Powerful: 300 W 
+    5 speed with Turbo function
+    Quick beater lock &amp; beater eject button for ease of use
+    Stainless Steel beater and dough hooks
+    Compact design for easy storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0526/7102/1214/products/M350-B5_Main_699d9d95-eafe-4451-b665-baac5bf51914_1000x.jpg?v=1620428462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0526/7102/1214/products/1_400x.jpg?v=1620428463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenwood Blender BLP15.150WH 500W 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take the effort out of blending with Kenwood’s Blender need a powerful blender without compromising precious kitchen worktop space.
+The Kenwood Blender is ideal for smaller spaces, but still has a generous 1.5 litre capacity goblet, perfect for all your blending needs – for refreshing smoothies, sauces and much more.
+Consistency in blending is crucial, so that’s why the strong stainless steel blades work fast for effortless blending, with 2 speeds and a pulse function to put you in total control. In addition, the BLP15.150WH comes with a mill for nuts, spices, coffee beans and herbs. As well as being a powerful staple for your kitchen, the Kenwood Blender has a high gloss finish for durability as well as style.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://electromall.net/wp-content/uploads/2021/02/kenwood-blender-blp15-150wh-500w-2l.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://electromall.net/product/kenwood-blender-blp15-150wh-500w-2l/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATHERINE MALANDRINO Chef Knife Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size:
+7” Santoku knife
+8” Bread knife
+5” Utility knife
+3.5” Paring knife
+Material: 3CR13 SS, 430 SS acacia wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gquick.com/wp-content/uploads/2023/02/MAM420_02_mam-2048x1365.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.knivesandtools.co.uk/en/pt/-mam-kitchen-knives-set-420-6-piece-kitchen-knife-set.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food container, large rectangular/plastic, 11 qt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helps you organize dry foods in your cabinets and drawers. The food containers come in different sizes and are stackable, so you can use the space efficiently.
+The transparent container makes it easy to find what you are looking for, regardless of where it is placed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/ikea-365-food-container-large-rectangular-plastic__0711418_pe728234_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/ikea-365-food-container-large-rectangular-plastic__0732738_ph155594_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/p/ikea-365-food-container-large-rectangular-plastic-10393064/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dish-washing brush, white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The scraper edge makes it easier to remove stubborn food debris.
+The dish-washing brush has a hole in the handle so you can hang it up when you’re not using it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/antagen-dish-washing-brush-white__1119403_pe873496_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/antagen-dish-washing-brush-white__1119401_pe873494_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/p/antagen-dish-washing-brush-white-30534223/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shower squeegee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleaning is more fun when you have the right tools. This handy helper is perfect for wiping water off walls, cleaning windows or glass doors in the shower.
+You can use the squeegee both for windows and shower surfaces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/lillnaggen-shower-squeegee__0711844_pe728517_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/lillnaggen-shower-squeegee__0863700_pe555289_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/p/lillnaggen-shower-squeegee-40243596/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nespresso Pixie with Aeroccino3 by Breville- Titan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN THE BOX:
+ - Nespresso Pixie by Breville- Titan
+ - Capsule Tasting Pack
+ - Instruction Book
+ - Aerocinno 3
+ Espresso provides convenience and simplicity with its single-serve espresso system. The espresso Pixie single-serve espresso machine offers avant-garde design with elegance and functionality. Equipped with a wide range of advanced features, the Pixie machine is energy efficient with a surprisingly compact design. Streamlined for maximum efficiency, This Coffee maker lives up to espresso reputation for high-end technology. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/61WXxI-vt1L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/71VlrV7hQLL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Breville-Nespresso-USA-BEC460TTN1BUC1-Breville-Titan-Single-serve/dp/B07SQBM1N8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paper napkin, dark red, 40x40 cm</t>
   </si>
   <si>
@@ -270,9 +425,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://ae01.alicdn.com/kf/Hc87f13539d064e2786c3b3dfeeebda15Y/Free-shipping-Glass-Beverage-Liquor-Dispenser-Drink-Dispenser-Fresh-Juice-Cup-Winemaking-Party-Bar-Tool-4L.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.aliexpress.com/i/1005002747295038.html</t>
   </si>
   <si>
     <t xml:space="preserve">Glass Juice Dispenser With Rose Gold Stand (18.5 x 17.5 x 32 cm, 4 L)</t>
@@ -471,6 +623,30 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.ikea.com/nl/en/p/tillagd-24-piece-cutlery-set-black-40343001/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur Price Classic Bead 44 Piece Cutlery Gift Box Set </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur Price Classic Bead 44 Piece Cutlery Gift Box Set ZBIS4411
+6 x Table Knife
+6 x Table Fork
+6 x Dessert Spoon
+6 x Dessert Knife
+6 x Dessert Fork
+6 x Soup Spoons
+6 x Tea Spoons
+2 x Serving Spoons
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0553/1903/6069/products/arthur-price-classic-bead-44-piece-cutlery-gift-box-set-zbis4411-167355_2000x.jpg?v=1621768905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0553/1903/6069/products/arthur-price-classic-bead-44-piece-cutlery-gift-box-set-zbis4411-167353_2000x.jpg?v=1621768905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.firstireland.com/products/arthur-price-classic-bead-44-piece-cutlery-gift-box-set-zbis4411?pr_prod_strat=collection_fallback&amp;pr_rec_id=2342deb24&amp;pr_rec_pid=6620243198117&amp;pr_ref_pid=6620244377765&amp;pr_seq=uniform</t>
   </si>
   <si>
     <t xml:space="preserve">Ace Floor Wax Stripper 1 gal Liquid</t>
@@ -490,7 +666,7 @@
 Product Form: Liquid</t>
   </si>
   <si>
-    <t xml:space="preserve">https://cdn-tp3.mozu.com/24645-37138/cms/37138/files/e7031fc7-48b1-4e9b-9e46-0c4a976678e3?quality=60&amp;_mzcb=_1649148331752</t>
+    <t xml:space="preserve">https://www.myhandb.bb/media/catalog/product/cache/b456f9c06a31f834e13ba33f49c2d862/1/8/1805086_ApbHq7fuKXsRx7gt.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.acehardware.com/departments/home-and-decor/cleaning-and-disinfectants/floor-wax-strippers/17791</t>
@@ -529,9 +705,6 @@
     <t xml:space="preserve">Kills germs &amp; bacteria</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ebinshop.com/product-images/WhatsApp+Image+2020-11-03+at+10.52.30.jpeg/2251763000001796170/1400x1400</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.ebinshop.com/products/re-fresh-all-in-one-anti-bacterial-disinfectant-spray-for-surfaces/2251763000001796142</t>
   </si>
   <si>
@@ -730,6 +903,15 @@
     <t xml:space="preserve">https://www.muji.com.hk/en/product/4550002868307</t>
   </si>
   <si>
+    <t xml:space="preserve">50 Tea Light Candles 100% Cotton Wick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/glimma-unscented-tealights__0638201_pe698764_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/p/glimma-unscented-tealights-50097995/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tealight holder, 4 "</t>
   </si>
   <si>
@@ -764,7 +946,7 @@
 - 3*pcs bell jar, hook, scissors</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ae01.alicdn.com/kf/Sa90519435cb94d0596000932fc0f1c123.jpg_640x640Q90.jpg_.webp</t>
+    <t xml:space="preserve">https://www.aliexpress.com/item/1005002969250194.html</t>
   </si>
   <si>
     <t xml:space="preserve">Candle Holder Compatible with Bath &amp; Body Works and White Barn 3-Wick Candles</t>
@@ -813,6 +995,9 @@
     <t xml:space="preserve">https://www.ikea.com/ca/en/p/borrby-lantern-for-block-candle-indoor-outdoor-white-30270142/</t>
   </si>
   <si>
+    <t xml:space="preserve">Lantern f/tealight, indoor/outdoor, deep green, 8 ¼ " (21 cm)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lanterns and candles always enhance a home’s decor – and when it gets dark outside, their glow creates a cozy atmosphere. The home feels warm, guests feel welcome and a romantic touch is added to every moment.
 The warm light from the candle shines decoratively through the pattern on the lantern.
 You can choose whether you want to hang the lantern or place on a flat surface.</t>
@@ -911,6 +1096,21 @@
     <t xml:space="preserve">https://www.ikea.com/us/en/p/ikea-365-coaster-cork-30282946/</t>
   </si>
   <si>
+    <t xml:space="preserve">decoration, leaf red 31x23 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaf-shaped red plate that is nice to fill with potpourri, dried fruit or snacks. Part of the AROMATISK collection that also has a smaller yellow plate and more decorative objects and colourful textiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.cn/cn/en/images/products/aromatisk-decoration-leaf-red__1121628_pe874303_s5.jpg?imwidth=800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.cn/cn/en/images/products/aromatisk-decoration-leaf-red__1121626_pe874302_s5.jpg?imwidth=800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.cn/cn/en/p/aromatisk-decoration-leaf-red-80541872/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saint Torch 31 20,000 lm Ultra-Bright Search Light</t>
   </si>
   <si>
@@ -923,6 +1123,603 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.nextorch.com/products/saint-torch-31-20-000-lm-ultra-bright-search-light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works Succulent Wallflower Plug (220V-240V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works Wallflower 
+Home Fragrance Plug
+220V -240V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media.karousell.com/media/photos/products/2022/3/2/bath__body_works_succulent_wal_1646250463_bdf38df7_progressive.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.carousell.ph/p/bath-body-works-succulent-wallflower-plug-220v-240v-store-bought-authentic-1146719023/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN THE STARS – Wallflowers Fragrance Refill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home fragrance that lasts for weeks and weeks! Pair with a Wallflowers plug and enjoy the scent of Sparkling Bergamot, Apricot Blossom &amp; Fluffed Sandalwood with Essential Oils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://storage.sg.content-cdn.io/cdn-cgi/image/width=350,height=470,quality=90,format=auto,fit=cover,g=top/in-resources/ac0f88a3-a76e-46af-aab3-ed9c00cbcfc2/Images/ProductImages/Source/26395956.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.com.my/in-the-stars-26395956/p/18395259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHOGANY TEAKWOOD INCREASED INTENSITY – Wallflowers Fragrance Refill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home fragrance that lasts for weeks and weeks! Pair with a Wallflowers plug and enjoy the scent of Rich Mahogany, Black Teakwood, Dark Oak and Frosted Lavender with Natural Essential Oils.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://storage.sg.content-cdn.io/cdn-cgi/image/width=350,height=470,quality=90,format=auto,fit=cover,g=top/in-resources/ac0f88a3-a76e-46af-aab3-ed9c00cbcfc2/Images/ProductImages/Source/26358679.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.com.my/mahogany-teakwood-increased-intensity-26358679/p/17506505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A THOUSAND WISHES – Wallflowers Fragrance Refill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What it smells like: a sweet, heart-warming celebration.
+What it does: fills any room with noticeable, always-on fragrance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://storage.sg.content-cdn.io/cdn-cgi/image/width=350,height=470,quality=90,format=auto,fit=cover,g=top/in-resources/ac0f88a3-a76e-46af-aab3-ed9c00cbcfc2/Images/ProductImages/Source/26558906.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.com.my/a-thousand-wishes-26558906/p/18239167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DREAM BRIGHT – Wallflowers Fragrance Refill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What it smells like: a floral-fruity fragrance dream come true—brilliant, unforgettable and bold.
+What it does: fills any room with noticeable, always-on fragrance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://storage.sg.content-cdn.io/cdn-cgi/image/width=350,height=470,quality=90,format=auto,fit=cover,g=top/in-resources/ac0f88a3-a76e-46af-aab3-ed9c00cbcfc2/Images/ProductImages/Source/26587287.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.com.my/dream-bright-26587287/p/18444729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media.karousell.com/media/photos/products/2022/10/22/_original_new_bbw_wallflowers__1666411139_53f1e36b_progressive.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebay.com/itm/175470725291?var=474784939700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viomi Smart Kettle [Works with Mijia] Intelligent Temperature Control 1.5L Capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It has 4 Insulation Modes, select the mode you want from its panel and you can also link it to the Mijia app
+Keeps the Water Warm Longer - It keeps the water warm up to 12 hours after boiling water with an power consumption of 0.5 Kw.
+Boils Water in 5 Minutes - Bottom heats the water from bottom to top and boils the water in just 5 minutes (approx.). For safety's sake, it shuts off as soon as the water boils.
+Brand:	Viomi
+Capacity:	1.5 Liters
+Voltage:	220
+Product dimensions:	21.6L x 14.5W x 23.5H centimeters
+Power / Wattage:	1800 watts
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51FZySykQkS._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61SA7dkUw4S._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/Viomi-Intelligent-Temperature-Control-Capacity/dp/B08696YQHQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mijia Electric Kettle 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True to the brand's own design, but with slight changes compared to previous models. The handle becomes 7-shaped, and the distance between the kettle itself and the switch is shortened. In addition, it increases the capacity, being now 1.7 liters.
+This electric kettle also uses a double-layer structure inside and out to form an intermediate insulation layer, which can insulate the high temperature inside the kettle and prevent accidental burns.
+Supports two-stage damping opening, one-stage opening, automatically opening without bouncing, to avoid splashing and burning from the accumulated water droplets on the top cap; Two-stage opening, manual lid opening, can go deep into the pot to clean, it is also convenient to receive water.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images.sitesails.com/1/original/a9a33ac4-67a2-46c0-bc37-2d14a9827c90-hervidor.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images.sitesails.com/1/original/22d7d7ec-b055-4946-a26a-80fd12c33e42-3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://xiaomipedia.com/en/p/mijia-electric-kettle-2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gowind-in Xiaomi Mijia Electric Water Kettle 1.5L Instant Heating Electric Kettle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Gowind-in
+Capacity: 	1.5 litres
+Material: 	Stainless Steel
+Colour: 	White
+Voltage: 	220 Volts
+Wattage: 	1800 Watts
+Included Components: 	Electric Water Kettle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304 Stainless Steel Inner Layer: Standard food-grade stainless steel, rust-free, anti-scaling, odorless, easy to clean. Anti-scalding Double Layers:With the hollow insulation layer between inner and outer layer, it provides more heat insulation to protect you from scalding
+1.5L Large Capacity: One boiling can meet a family drink for multiple members, no need to boil water frequently. Superior STRIX Temperature Control Precise temperature control guarantees a full boiling and longer lifespan."
+Brand:	Gowind-in
+Capacity:	1.5 litres
+Material:	Stainless Steel
+Colour:	White
+Voltage:	220 Volts
+Wattage:	1800 Watts
+Included Components:	Electric Water Kettle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/4120iFqYhSL._SL1001_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41Ah0KupMkL._SL1001_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/Gowind-Xiaomi-Electric-Instant-Heating/dp/B07LGQ3Q3L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NANETTE Fridge Storage Set - 4 Pieces Fridge Storage Set, White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organize maximize your space and conveniently separate beverages, condiments, eggs, and more
+Dimensions: 29 x 18.5 x 9 cm, 37 x 21 x 9.5 cm, 37 x 11 x 9.5 cm, 37 x 11.5 x 7.5 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://b.bflcdn.com/t_mpl/f_auto,q_auto/products/22/10/17F0600180_1.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://b.bflcdn.com/f_auto,q_auto/products/22/10/17F0600180_3.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.brandsforless.com/en-in/4-pieces-fridge-storage-set-white/1143174/p/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRSAN Electric Wine Aerator, Wine Dispenser Pump Set with Retractable Tube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric Wine Aerator with a wine pump is delivered perfectly aerated wine straight to your glass. The wine aerator pourer spout design provides more air contact surface to speed oxidation instantly. The electric wine aerator pourer enhances much aroma and flavor into the wine.
+Wine Aerator Pump with Three-Stage Retractable Stainless Steel Tube is suitable for most wine bottles. Install the extension tube down below the aerator wine pour, press the top button, the wine will be delivered straight to your glass through the aerator channel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61jFH0JwRVL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71qPr+IUf7L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/ANDRSAN-Electric-Dispenser-Retractable-One-Touch/dp/B09TSN1R98?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor stand with drawer, white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placing a monitor at the right height relieves strain on your back and shoulders. This monitor stand with storage supports productive working, studying and creating – and helps keep the desk neat and tidy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/elloven-monitor-stand-with-drawer-white__0955984_pe804426_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/elloven-monitor-stand-with-drawer-white__0964055_pe808855_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/p/elloven-monitor-stand-with-drawer-white-50474770/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throw, red-brown/white, 51x67 "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here’s something cozy to wrap yourself into as the season gets colder. This throw is made from stain-resistant and super soft New Zealand wool in a blush tone that instantly adds warmth to the room.
+Wool is naturally stain-resistant, keeps the warmth even if it gets wet and is soft and dense to the touch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/ulltistel-throw-red-brown-white__0981203_pe815282_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/ulltistel-throw-red-brown-white__0981204_pe815297_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/p/ulltistel-throw-red-brown-white-30502255/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Seater Chair Cover – Grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.maxicovers.com/4922-thickbox_default/indigo-super-stretch-sofa-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.maxicovers.com/super-stretch-covers/indigo-super-stretch-sofa-cover.html#/13-new_texture_sizes-1_seater_sofa/793-indigo_colors-rustic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Seater Chair Cover – Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.maxicovers.com/4914-thickbox_default/indigo-super-stretch-sofa-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizer with 6 compartments, white, 13 ¾x17 ¾x49 ¼ " (35x45x125 cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need more shelves for your folded clothes? Simply hang this storage inside your wardrobe or on a freestanding rack. Use with other SKUBB products for complete control of your wardrobe.
+The fabric is made of recycled polyester. Using waste as a resource takes us one step closer to a more sustainable future.
+The hook and loop fastener makes it easy to hang up and move.
+It is easier to pull the boxes out of the compartments if you hold on to the strap at the bottom.
+Takes up little space to store as it folds flat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ca/en/images/products/skubb-organizer-with-6-compartments-white__0710647_pe727677_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ca/en/images/products/skubb-organizer-with-6-compartments-white__0909285_pe386047_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ca/en/p/skubb-organizer-with-6-compartments-white-00245880/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanging handbag organiser, dark grey, 39x93 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you like handbags? Here you have a hanging storage solution that helps you organise the wardrobe. The fabric is made from recycled polyester, just like all products in the SKUBB series.
+The fabric is made of recycled polyester. Using waste as a resource takes us one step closer to a more sustainable future.
+Helps you store and protect your bags when not in use.
+The organiser has 2 extra large compartments.
+You can easily see what’s inside the compartments thanks to the see-through material.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/skubb-hanging-handbag-organiser-dark-grey__0580174_pe670085_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/skubb-hanging-handbag-organiser-dark-grey__0580173_pe670086_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large Thick Woolen Carpet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.etsystatic.com/6494270/r/il/9b8587/3071585395/il_1140xN.3071585395_69si.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/91NyHBA9DUL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/eCarpet-Gallery-Turkish-Oriental-346973/dp/B09F6WFD71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath mat, white, 60x120 cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in different colours which are easy to coordinate with other bath textiles and accessories.
+The backing keeps the bath mat in place and reduces the risk of slipping.
+Length: 120 cm
+Width: 60 cm
+Weight.: 1442 g/m²
+Area: 0.72 m²
+Surface density: 1017 g/m²
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.ikea.com.tr/urunler/2000_2000/PE738489.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.ikea.com.tr/urunler/2000_2000/PE738904.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com.tr/en/product/emten-white-60x120-cm-bath-mat-50456993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rug, low pile, multicolor, 2 ' 7 "x3 ' 11 "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The faded oriental expression of this rug adds a special touch to your room. A good choice for those who want a durable, stain-resistant rug that is just as great on the sofa as under the dining table.
+Ideal for high traffic areas like kitchens and hallways since the rug is easy to vacuum.
+Durable, stain resistant and easy to care for since the rug is made of synthetic fibers.
+The rug will last a long time since it is stain-resistant and easy to care for.
+The pattern looks faded and worn, which gives the rug a vintage look.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/onsevig-rug-low-pile-multicolor__0941463_pe795478_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/onsevig-rug-low-pile-multicolor__0941458_pe795476_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/p/onsevig-rug-low-pile-multicolor-00497076/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John LewisFull-Length In-Bath Mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Providing confidence underfoot when in the shower our full-length in-bath mat sticks to the bath using suction pads so you can be sure not to slip.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/61UIxfpSgiL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/51-VmTLTeJL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.johnlewis.com/john-lewis-full-length-in-bath-mat/p5111157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trolley, white, 35x45x78 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This trolley fits in the smallest of spaces and can be moved to wherever you need it. Use it as extra storage for all your kitchen utensils, desk accessories or for gloves, keys and mobile phones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/raskog-trolley-white__0503386_pe632627_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/raskog-trolley-white__1134462_pe878783_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/p/raskog-trolley-white-20382932/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop stand, anthracite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This sturdy black laptop stand helps you study, work, or play an instrument with sheet music. It´s easy to adjust the height, tilt the top, move around in the home – and even fold for storage.
+A flexible and versatile solution that you can use throughout the home and for many different activities.
+It’s easy to tilt the top and adjust the height of the BJÖRKÅSEN laptop stand to enjoy a working position that is comfortable for you.
+Easy to fold so it takes up less storage space – just tilt the top.
+Clip the included cup holder to the underframe to always have coffee and other beverages nearby.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/bjoerkasen-laptop-stand-anthracite__0955981_pe804392_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/bjoerkasen-laptop-stand-anthracite__0964123_pe808905_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/p/bjoerkasen-laptop-stand-anthracite-20476474/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorilla Dual Temp Full-Size Hot Glue Gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Gorilla Dual Temp Full-Size Glue Gun is an ideal tool for crafts and home projects requiring more glue output and volume. It is light weight, with a comfort grip and a built-in stand making it easy to use. The easy squeeze trigger and long insulated nozzle allow a precise application on any project.
+    - Ideal for wood, metal, glass, floral, and more!
+    - For best results, use Gorilla Full-Size Hot Glue Sticks
+    - Precision Nozzle
+    - Easy Squeeze Trigger
+    - Enhanced Safety Features
+    - Wide Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gorillatough.com/wp-content/uploads/Large-Hot-Glue-Gun-FOP4-e1622127654256-450x450-c-default.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gorillatough.com/wp-content/uploads/1920x1080-Large-Hot-Glue-Gun-2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gorillatough.com/product/gorilla-dual-temp-full-size-hot-glue-gun/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifter,Mattress Elevator,Bed Making Aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mattress lifter is a practical tool for making most bed types and installing slipcovers, allowing you to make your bed in an easier way, saving you time and energy, and back pain with an ergonomic design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0012/0907/3756/collections/7a3486261c6c346fc678acd96a3ae913_4b84f895-83b1-48d8-95fa-db7970195470_large.jpg?v=1596830686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.innstyle.com/collections/bedding-mattresses-bed-madeez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GJUSEN Bathroom Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bathroom Set
+- Soap Dish
+- Tooth brush dish
+- Hand soap dish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://d2rbyiw1vv51io.cloudfront.net/web/ikea4/images/404/0940431_PE795000_S4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED 3-armed candelabra, circle/battery-operated brass-colour, 25 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tired of dripping candle wax? Here’s an alternative – a battery-operated, brass-coloured candle holder with 3 LED bulbs that lights up your room and creates a cosy atmosphere with its soft and warm glow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ch/en/images/products/strala-led-3-armed-candelabra-circle-battery-operated-brass-colour__1089943_pe861767_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ch/en/images/products/strala-led-3-armed-candelabra-circle-battery-operated-brass-colour__1089942_pe861766_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy to place anywhere as it is battery operated and does not need to be connected to the mains supply.
+Spreads a soft light that creates a cosy atmosphere in the room.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alokozay Premium Tea Assortment Collection 144 Tea Bags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSORTMENT COLLECTION:
+Black Tea, Green Tea, Strawberry Tea, Raspberry Tea, Orange Tea, Peach Tea, Fennel Tea, Cardamom Tea, Earl Grey Tea, Cinnamon Tea, Blackcurrant Tea, Jasmine Tea, Thyme, Lemon Tea, Black Tea With Thyme, Green Tea With Thyme, Vanilla Tea, Mint Tea, Peppermint Tea, Lemon Green Tea, Camomile, Moroccan Tea, Ginger &amp; Lemon Tea, Pomegranate Tea, Ginger Lemon &amp; Honey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bishuddhotabd.com/products/1_7uKhsnS.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.alokozayshop.com/media/catalog/product/cache/becff0503ca0e7a260b4840efc04a5e7/p/r/premium-wooden-chest.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.alokozayshop.com/alokozay-tea/tea-box/wooden-tea-box-wholesale.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLASSIC 4PC Glass Tumbler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLASSIC 4PC Glass Tumbler
+Service for 4
+Elegant design for all occasions
+Capacity: 360ml
+Glossy Finish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apron, gray, 35x36 "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fresh apron that protects your clothes makes cooking more enjoyable. This one in linen and cotton has practical pockets and a loop where you can hang barbecue tongs or a tea towel.
+Adjustable neck-band to fit most everyone.
+Linen/cotton blend. Combines the shine and firmness of linen with the softness of cotton.
+Features loop to hang cooking tongs, etc.
+Practical pockets for small items.
+The loop makes it easy to hang the apron away when not in use.
+Cotton/linen blend with high absorption capacity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/mariatheres-apron-gray__0918051_pe786112_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/mariatheres-apron-gray__0923600_pe788349_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/p/mariatheres-apron-gray-90479577/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Towel Stand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symphony Gravy Boat and Tray – 325ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The range began with porcelain pieces and has since expanded to incorporate glass and stoneware, across servingware, dinnerware, kitchenware and decorator pieces. This diversity, paired with the brand’s exceptional quality and value, ensures Symphony’s wide-ranging appeal. symphony is made of the highest-grade porcelain, fired at more than 1340 degrees, giving it strength, durability and a superior hardness in the glazing. this ensures you can enjoy your symphony pieces for many years to come and they will continue to look as good as the day you first brought them home, dishwasher and microwave safe, designed in australia
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://storagecdn2.myecomz.com//assets/tamig/Product/73fa7296b41340d8ac8cf03c3c88223a-Optimal.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tamig.co/product/symphony-gravy-boat-and-tray-%C3%B8325ml/SY4273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lever in Oil Rubbed Bronze – Passage, Door handle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Yale Security
+Colour: 	Oil-Rubbed Bronze
+Style: 	Passage
+Exterior finish: 	Bronze
+Handle type: 	Lever
+Finish type: 	Oil Rubbed
+Metal type: 	Bronze
+Handle material: 	Bronze
+Package type: 	Standard Packaging
+Unit count: 	1.0 count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/51TH4sxq+9L._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/Collection-Norwood-Lever-Rubbed-Bronze/dp/B018BF510E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowl, glossy dark turquoise, 12 cm (4 ½ ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your perfect start for many types of meals. FÄRGKLAR bowl comes in a straightforward design, a great base to match with other dinnerware. Choose a matt glazed rustic surface or a glossy modern one.
+The bowl’s simple, functional design is easy to coordinate with other colours, shapes or different types of glazing – and makes FÄRGKLAR the perfect base for many occasions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/in/en/images/products/faergklar-bowl-glossy-dark-turquoise__0958687_pe805418_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/in/en/images/products/faergklar-bowl-glossy-dark-turquoise__0958690_pe805420_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/in/en/p/faergklar-bowl-glossy-dark-turquoise-90486827/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Side plate, glossy dark turquoise, 20 cm (8 ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your perfect start for many types of meals. FÄRGKLAR side plate comes in a straightforward design, a great base to match with other dinnerware. Choose a matt glazed rustic surface or a glossy modern one.
+The side plate’s simple, functional design is easy to coordinate with other colours, shapes or different types of glazing – and makes FÄRGKLAR the perfect base for many occasions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/in/en/images/products/faergklar-side-plate-glossy-dark-turquoise__0959676_pe806130_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/in/en/images/products/faergklar-side-plate-glossy-dark-turquoise__0959679_pe806132_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/in/en/p/faergklar-side-plate-glossy-dark-turquoise-00477163/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polypropylene Plastic Solid Bevara Sealing Clip (Multicolour) - 30 Pack, Adjustable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Set of 30 - 30 units in TOTAL;
+Sizes: 40 pcs 2 long and 20 pcs 4 long;
+Freezer-safe;
+Dishwasher-safe;
+Perfect to seal food/snack bags, keep food fresh 
+Brand: 	Ikea
+Material: 	Polypropylene plastic
+Colour: 	multicolour
+Item Weight: 	159 Grams
+Number of Pieces: 	30
+Size: 	Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71pLRWU6+2L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71m6XynHKLL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://arcus-www.amazon.in/Ikea-903-391-72-Sealing-assorted-30-pack/dp/B00SH18114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sturdy Trusty Cane Folding Cane Walking Stick with led Light, for Old Men, Women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	plenzo
+Material: 	Aluminum
+Colour 	Multicolour
+Shaft Material: 	Wood
+Extended Length: 	38 Inches
+    Self Standing Fold-able Cane with adjustable length of 34 to 38 inch
+    Folding Design: Folds, Lights, Pivots.
+    Extra Wide Pivoting Head.
+    Walk Up &amp; Down challenging Hills With confidence.
+    package include = 1 x TRUSTY CANE WALKING STICK........
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41CXR5OybqL.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41taZs0fViL.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/Two-Handle-Adjustable-Handled-Foldable-Walking/dp/B07SQ91VB5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic Glass Cake Stand with Dome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://target.scene7.com/is/image/Target/GUEST_eae3bfb6-9674-445e-be8d-391851449ba7?wid=725&amp;hei=725&amp;qlt=80&amp;fmt=webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://target.scene7.com/is/image/Target/GUEST_09df8cc1-f2ea-4744-8e86-d243d9acee72?wid=725&amp;hei=725&amp;qlt=80&amp;fmt=webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.target.com/p/classic-glass-cake-stand-with-dome-threshold-8482/-/A-53249507</t>
   </si>
 </sst>
 </file>
@@ -932,7 +1729,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -957,6 +1754,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1004,7 +1808,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1019,6 +1823,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1044,7 +1852,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1070,7 +1878,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="n">
+        <v>4649</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1171,10 +1981,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1200,43 +2010,49 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4697</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4700</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1258,10 +2074,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1287,43 +2103,49 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4723</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4726</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1345,10 +2167,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1373,24 +2195,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4729</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1409,13 +2234,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1440,26 +2265,74 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4732</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4735</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1479,10 +2352,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1508,120 +2381,135 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>4607</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4610</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4611</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>60000</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4614</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4617</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4620</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1694,13 +2582,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1725,151 +2613,227 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4623</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>80000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4625</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4627</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4629</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4632</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4634</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>170000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>4637</v>
+      </c>
       <c r="B8" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4644</v>
+      </c>
       <c r="B9" s="0" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4646</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1889,10 +2853,10 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1917,135 +2881,159 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4738</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4739</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>300000</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4742</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4745</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4748</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4751</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>256</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4754</v>
+      </c>
       <c r="B8" s="0" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2064,15 +3052,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2095,26 +3083,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4759</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2131,13 +3128,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2162,58 +3159,90 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4762</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="33.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4763</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4766</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>237</v>
+        <v>284</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>238</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2234,11 +3263,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2263,21 +3292,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="36.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4774</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2296,13 +3328,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.36"/>
   </cols>
@@ -2330,7 +3362,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4597</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2350,7 +3385,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4600</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2370,7 +3408,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4603</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
@@ -2390,11 +3431,987 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4605</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4776</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4778</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4780</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4782</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4784</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4786</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4787</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4790</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4793</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4796</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4799</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4802</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4805</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4808</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>350</v>
+      </c>
       <c r="F5" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
+        <v>351</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4810</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>550000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4812</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>550000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4815</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4818</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4821</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>4824</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>4827</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>4830</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>4833</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>4836</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4837</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>4839</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>4841</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>4844</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>4846</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>4847</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>4850</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>4851</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>4857</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>4859</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>4862</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>4865</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>4868</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>4871</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2414,10 +4431,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2443,21 +4460,26 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4652</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>250000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2476,13 +4498,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2507,63 +4529,104 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4655</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4658</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4661</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>200000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2580,13 +4643,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2612,37 +4675,63 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4664</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4666</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>160000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4669</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2661,60 +4750,264 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="0" t="n">
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>4672</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>40000</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
+      <c r="E2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4675</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4677</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4678</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4681</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4684</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4687</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4690</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2734,10 +5027,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2763,23 +5056,26 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4694</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>25000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2801,10 +5097,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2830,68 +5126,77 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4701</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4704</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>4707</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4713</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2910,15 +5215,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2941,43 +5246,58 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4716</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4717</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/sheets/household.xlsx
+++ b/sheets/household.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="537">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -222,6 +222,31 @@
     <t xml:space="preserve">https://www.amazon.com/BOTTLED-Bottle-%EF%BC%8CReusable-Tritan-Sports/dp/B09C5NXRM3?th=1</t>
   </si>
   <si>
+    <t xml:space="preserve">Contigo Autoseal Chill Stainless Steel Water Bottles, 24 Oz, SS/Monaco &amp; Monaco, 2 Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep your cool all day with the spill-proof Auto-seal chill stainless steel water bottle. Whether you're running around town or on the treadmill, your water will stay cold up to 28 hours, thanks to Thermalock Vacuum insulation in this reusable water bottle. Just press to Sip and release to seal automatically, using the spout cover to help protect against dirt when you're finished hydrating. Now, that's cool. 
+    - Our lids are sealed AUTOSEAL technology is Leak and spill proof (Yes, there is a difference!)
+    - For the long Haul : drinks stay cold up to 28 hours with THERMALOCK vacuum insulation
+    - Carry on: carry handle for easy transport
+    - Cleaner drinking : spout cover to help keep out gross dirt and germs
+    - Lend a hand : easy one handed drinking with the push of a button; clean up top rack dishwasher safe lid, hand wash body
+    - One-piece lid – no loose parts to misplace
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/71T+5tq7mQL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/71SoyG4-IzL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/Contigo-AUTOSEAL-Stainless-Bottles-Monaco/dp/B077NQL3ZS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/71RAKGOKqyL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jar with lid, clear glass</t>
   </si>
   <si>
@@ -266,6 +291,21 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.ikea.com/ca/en/p/korken-jar-with-lid-clear-glass-70227986/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jar with lid, clear glass, 1.9 l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give your homemade muesli a place of honour on the kitchen worktop. In this glass jar with a tight-fitting lid, it stays fresh for a long time – and you immediately see when it's time to refill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/vardagen-jar-with-lid-clear-glass__0713736_pe729735_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/vardagen-jar-with-lid-clear-glass__0930079_pe790591_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/p/vardagen-jar-with-lid-clear-glass-00291928/</t>
   </si>
   <si>
     <t xml:space="preserve">Coaster,
@@ -401,6 +441,94 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/Breville-Nespresso-USA-BEC460TTN1BUC1-Breville-Titan-Single-serve/dp/B07SQBM1N8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nespresso Essenza Bundle Mini Automatic Espresso Machine with Aeroccino Milk Frother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With Essenza Mini, Nespresso has delivered its smallest and most compact machine yet – without any compromise on taste. Offering 2 programmable cup sizes, this automatic coffee machine creates perfect coffee just the way you like it. It includes a stand alone Aeroccino milk frother, allowing you to create an endless number of milk based coffee drinks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://res.cloudinary.com/yuppiechef/image/upload/c_lpad,f_auto,h_1024,q_auto,w_1024/v1/contentdocs/32189/otherpicture520200508140913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.yuppiechef.com/nespresso-machines.htm?id=32189&amp;name=Nespresso-Essenza-Mini-Automatic-Espresso-Machine-with-Aeroccino-Milk-Frother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black &amp; Decker - Rice Cooker 1.8 L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Powerful: 700W 1.8 L Rice Cooker for your family
+- Convenient: Removable non stick bowl with aluminum steaming tray for easy cleaning
+- Keep Warm: Cook &amp; auto warm function with indicator lights so your food is hot when you need it
+- Right Level: Easy to read water level indicator for the right recipes
+- Easy to Use: One touch button for easy control
+- Easy Handling: Glass lid with cool touch handles for user safety
+- In the Box: 1 x 1.8L Rice Cooker; 1 x Removeable Non-stick Bowl; 1 x Aluminium Steaming Tray; 1 x Glass Lid; 1 x - Measuring Cup; 1 x Spoon, 1 x Instruction Manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0569/4475/4867/products/1_c8471f4d-874f-466a-9096-9d00e406a0b1_1800x1800.png?v=1654334705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0569/4475/4867/products/1_e8f29a7b-bdca-460b-8f51-da3fb23251da_1800x1800.png?v=1654334705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lilyseshop.com/products/mega-hardware-black-decker-rice-cooker-1-8l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK+DECKER Smart Steam Pot, 1000W, 7 in 1, 6.0 L, Smart Programmable Electric Pressure Cooker, Black/Silver – PCP1000-B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tap into the new era of convenience as the Black+Decker EZ Smart Steam Pot lets you enjoy the benefits of 7 varieties of cooking appliances in one appliance! Isn’t that just fantastic! 
+    - Versatile cooking experience with the 1000W power
+    - 7 in 1 smart cooker for a variety of cooking possibilities
+    - Cook for up to 8 people with the 6L capacity
+    - Aesthetic look to fit into any household with the brushed stainless steel housing
+    - 1 touch selection of popular recipes with the 12 smart programs
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71wiRsUEV6S._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71fmlNqFDrS._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.eg/-/en/DECKER-Programmable-Electric-Pressure-Black/dp/B096WKCP7T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dish drying mat, green, 44x36 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart accessories make kitchen work easier and help you keep the worktop neat and tidy. Use this drying mat to get more drying space or place it under the dish drainer to soak up all the dripping.
+This drying mat is an easy and quick way for you to get more drying space for your dishes.
+The drying mat can also be placed under a dish drainer to soak up water that drips down from the drainer.
+Easy to store by folding it or hanging it on a hook with the loop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/om/en/images/products/nyskoeljd-dish-drying-mat-green__0722175_pe733501_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/om/en/images/products/nyskoeljd-dish-drying-mat-green__0718698_pe731600_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/om/en/p/nyskoeljd-dish-drying-mat-green-40451057/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food container with lid, square/glass, 6 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eat now or later. Store and heat up food using this durable food container with lid. Stock up on several – they take up little space in the kitchen cabinet since you can stack them inside one another.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/ikea-365-food-container-with-lid-square-glass__0916186_pe785017_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/ikea-365-food-container-with-lid-square-glass__0916187_pe785018_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/p/ikea-365-food-container-with-lid-square-glass-80444946/</t>
   </si>
   <si>
     <t xml:space="preserve">Paper napkin, dark red, 40x40 cm</t>
@@ -912,6 +1040,19 @@
     <t xml:space="preserve">https://www.ikea.com/us/en/p/glimma-unscented-tealights-50097995/</t>
   </si>
   <si>
+    <t xml:space="preserve">Bath and Body Works VANILLA BEAN NOEL 3-Wick Scented Candle 14.5 oz / 411 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing room-filling fragrances
+Consistent quality from beginning to end
+Delivers up to 45 hours of fragrance
+Over 50 exclusive fragrances
+Every candle is 100% money-back guaranteed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lzd-img-global.slatic.net/g/p/38cb69aa31afb3e57330a9eab4a3eda4.jpg_2200x2200q80.jpg_.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tealight holder, 4 "</t>
   </si>
   <si>
@@ -1030,6 +1171,21 @@
     <t xml:space="preserve">ikea.com/ca/en/p/enrum-lantern-f-tealight-indoor-outdoor-white-90526357/#content</t>
   </si>
   <si>
+    <t xml:space="preserve">Lantern for tealight, red, 31 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This lantern is reminiscent of a small red house – and as soon as you light a candle, the punched holes create playful shadows. Part of the AROMATISK collection where you’ll also find matching textiles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ie/en/images/products/aromatisk-lantern-for-tealight-red__1121622_pe874300_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ie/en/images/products/aromatisk-lantern-for-tealight-red__1121620_pe874299_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ie/en/p/aromatisk-lantern-for-tealight-red-20541455/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Throw, off-white, 130x170 cm</t>
   </si>
   <si>
@@ -1720,6 +1876,120 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.target.com/p/classic-glass-cake-stand-with-dome-threshold-8482/-/A-53249507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makita CW001GT101-RA2X2 40v Max XGT Cooler/Warmer Box (2x2Ah)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep your beers cold and your pies hot with the amazing CW001GT101 cooler/warmer from Makita. The CW001GT101 is simple to use with an on/off button and temperature selection panel to select seven cooling and seven warming temperatures from -18 degrees, your home freezer temperature, +5 degrees for your home fridge temperature and +60 degrees, the hygiene standard for warming foods before eating.
+   - Cooling Capacity: -18 - 10 ºC
+   - Warming Capacity: 30 - 60 ºC
+   - Voltage: 40 v
+   - Capacity: 20 litres
+    Net weight: 13.5 - 13.8 kg
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn11.bigcommerce.com/s-320izp4p6a/images/stencil/1280x1280/products/70174/201194/CW001GZ__18241.1673867494.jpg?c=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn11.bigcommerce.com/s-320izp4p6a/images/stencil/1280x1280/products/70174/201193/CW001GT101-RA2X2__11230.1673867494.jpg?c=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fastfix.co.uk/makita-cw001gt101-ra2x2-40v-max-xgt-cooler-warmer-box.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-piece screwdriver bit set, dark grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 screwdriver bits, 6 drill bits of dia. 2 to 4 mm and 1 bit holder included.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/qa/en/images/products/fixa-17-piece-screwdriver-bit-set-dark-grey__0686973_pe721927_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/qa/en/p/fixa-17-piece-screwdriver-bit-set-dark-grey-00458466/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-piece screw hook and plug set, silver-colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The FIXA series has all the tools and equipment you need to get your home just the way you want it. Complement the tools you already have or build a DIY starter kit for all your future projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/om/en/images/products/fixa-4-piece-screw-hook-and-plug-set-silver-colour__0362364_pe546331_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/om/en/p/fixa-4-piece-screw-hook-and-plug-set-silver-colour-20458465/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-piece picture hook set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/fixa-116-piece-picture-hook-set__0711968_pe728597_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/fixa-116-piece-picture-hook-set__0912088_pe617577_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/p/fixa-116-piece-picture-hook-set-90169278/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260-piece screw and plug set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/fixa-260-piece-screw-and-plug-set__0711966_pe728598_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/fixa-260-piece-screw-and-plug-set__0911856_pe617580_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/p/fixa-260-piece-screw-and-plug-set-00169249/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132pcs Hand Tool Set | Hand Tools | Home Using Tools| Professional Tools Jy-t10029 Kl-16001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTT 132PCS HAND TOOL SET | HAND TOOLS | HOME USING TOOLS| PROFESSIONAL TOOLS JY-T10029 KL-16001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://goldentools.ae/gttecom/itmimg/6291116207269/6291116207269_4.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://goldentools.ae/gttecom/itmimg/6291116207269/6291116207269_3.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://goldentools.ae/gttecom/item/GTT/Tool-set-and-Kits/?&amp;brcd=6291116207269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frame, white, 21x30 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decorate with pictures you love. This frame has a detailed bead edge and comes in many sizes, perfect for a picture wall. The plastic front protection is safe ― and does justice to the motif.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/himmelsby-frame-white__0898051_pe782455_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/himmelsby-frame-white__0898070_pe782466_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/p/himmelsby-frame-white-80466839/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frame, white, 30x40 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decorate with pictures you love. This frame has a thin edge with a profile that has a traditional look and comes in many sizes. The plastic front protection is safe ― and does justice to the motif.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/pt/en/images/products/knoppaeng-frame-white__0660786_pe711200_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/pt/en/images/products/knoppaeng-frame-white__0660783_pe711198_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/pt/en/p/knoppaeng-frame-white-20427290/</t>
   </si>
 </sst>
 </file>
@@ -1849,10 +2119,10 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="E39 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1981,10 +2251,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E39 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2014,22 +2284,22 @@
         <v>4697</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2037,22 +2307,22 @@
         <v>4700</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2074,10 +2344,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="E39 F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2107,22 +2377,22 @@
         <v>4723</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2130,22 +2400,22 @@
         <v>4726</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2167,10 +2437,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="E39 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2200,22 +2470,22 @@
         <v>4729</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2237,10 +2507,10 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="E39 C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2270,22 +2540,22 @@
         <v>4732</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2293,22 +2563,22 @@
         <v>4735</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2000000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2352,10 +2622,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="E39 A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2385,19 +2655,19 @@
         <v>4607</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2405,22 +2675,22 @@
         <v>4610</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2428,16 +2698,16 @@
         <v>4611</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2445,22 +2715,22 @@
         <v>4614</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2468,25 +2738,25 @@
         <v>4617</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2494,22 +2764,22 @@
         <v>4620</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2585,10 +2855,10 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="1" sqref="E39 G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2618,22 +2888,22 @@
         <v>4623</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>80000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2641,19 +2911,19 @@
         <v>4625</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2661,19 +2931,19 @@
         <v>4627</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2681,16 +2951,16 @@
         <v>4629</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2698,22 +2968,22 @@
         <v>4632</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2721,19 +2991,19 @@
         <v>4634</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>170000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2741,22 +3011,22 @@
         <v>4637</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2764,22 +3034,22 @@
         <v>4644</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2787,22 +3057,35 @@
         <v>4646</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2850,13 +3133,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="E39 D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2886,22 +3169,22 @@
         <v>4738</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2909,16 +3192,16 @@
         <v>4739</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2926,22 +3209,22 @@
         <v>4742</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2949,22 +3232,22 @@
         <v>4745</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2972,22 +3255,22 @@
         <v>4748</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2995,22 +3278,22 @@
         <v>4751</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3018,22 +3301,39 @@
         <v>4754</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>265</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3055,10 +3355,10 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="E39 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3088,22 +3388,22 @@
         <v>4759</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3131,10 +3431,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="E39 A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3164,19 +3464,19 @@
         <v>4762</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="33.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3184,19 +3484,19 @@
         <v>4763</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3204,22 +3504,22 @@
         <v>4766</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3227,22 +3527,22 @@
         <v>4769</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3264,10 +3564,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="E39 D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3297,19 +3597,19 @@
         <v>4774</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1000000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3331,10 +3631,10 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E39 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.36"/>
   </cols>
@@ -3499,10 +3799,10 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="E39 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3532,19 +3832,19 @@
         <v>4776</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,19 +3852,19 @@
         <v>4778</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3572,19 +3872,19 @@
         <v>4780</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3592,19 +3892,19 @@
         <v>4782</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,19 +3912,19 @@
         <v>4784</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3635,10 +3935,10 @@
         <v>90000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3646,7 +3946,7 @@
         <v>4787</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3668,10 +3968,10 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="1" sqref="E39 J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3701,22 +4001,22 @@
         <v>4790</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3724,19 +4024,19 @@
         <v>4793</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3744,22 +4044,22 @@
         <v>4796</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3788,11 +4088,11 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3822,19 +4122,19 @@
         <v>4799</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3842,22 +4142,22 @@
         <v>4802</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3865,19 +4165,19 @@
         <v>4805</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3885,19 +4185,19 @@
         <v>4808</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3905,19 +4205,19 @@
         <v>4810</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3925,19 +4225,19 @@
         <v>4812</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3945,19 +4245,19 @@
         <v>4815</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3965,19 +4265,19 @@
         <v>4818</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>80000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3985,19 +4285,19 @@
         <v>4821</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4005,22 +4305,22 @@
         <v>4824</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4028,19 +4328,19 @@
         <v>4827</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4048,19 +4348,19 @@
         <v>4830</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4068,19 +4368,19 @@
         <v>4833</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4088,19 +4388,19 @@
         <v>4836</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4108,19 +4408,19 @@
         <v>4837</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4128,19 +4428,19 @@
         <v>4839</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>70000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4148,13 +4448,13 @@
         <v>4841</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4162,19 +4462,19 @@
         <v>4844</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4182,22 +4482,22 @@
         <v>4846</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4205,10 +4505,10 @@
         <v>4847</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>160000</v>
@@ -4219,22 +4519,22 @@
         <v>4850</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4242,10 +4542,10 @@
         <v>4851</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4253,19 +4553,19 @@
         <v>4857</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4273,19 +4573,19 @@
         <v>4859</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4293,19 +4593,19 @@
         <v>4862</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4313,19 +4613,19 @@
         <v>4865</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4333,22 +4633,22 @@
         <v>4868</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4356,46 +4656,171 @@
         <v>4871</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4431,10 +4856,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="E39 C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4501,10 +4926,10 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="1" sqref="E39 E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4595,8 +5020,46 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4643,13 +5106,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="E39 E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4679,22 +5142,22 @@
         <v>4664</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4702,16 +5165,16 @@
         <v>4666</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>160000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4719,19 +5182,36 @@
         <v>4669</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4752,11 +5232,11 @@
   </sheetPr>
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="E39 B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
   </cols>
@@ -4789,22 +5269,22 @@
         <v>4672</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4812,16 +5292,16 @@
         <v>4675</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4829,16 +5309,16 @@
         <v>4677</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4846,16 +5326,16 @@
         <v>4678</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4863,19 +5343,19 @@
         <v>4681</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4883,22 +5363,22 @@
         <v>4684</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4906,19 +5386,19 @@
         <v>4687</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4926,29 +5406,115 @@
         <v>4690</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1500000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>900000</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5027,10 +5593,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E39 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5060,22 +5626,22 @@
         <v>4694</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>25000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5097,10 +5663,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="E39 A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5130,13 +5696,13 @@
         <v>4701</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5144,19 +5710,19 @@
         <v>4704</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5164,19 +5730,19 @@
         <v>4707</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5184,19 +5750,19 @@
         <v>4713</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5218,10 +5784,10 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="E39 E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5251,22 +5817,22 @@
         <v>4716</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5274,19 +5840,19 @@
         <v>4717</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/sheets/household.xlsx
+++ b/sheets/household.xlsx
@@ -2119,10 +2119,10 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="E39 B3"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2251,10 +2251,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E39 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2344,10 +2344,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="E39 F6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2437,10 +2437,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="E39 G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2507,10 +2507,10 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="E39 C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2622,10 +2622,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="E39 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2855,10 +2855,10 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="1" sqref="E39 G7"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3073,6 +3073,9 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>5268</v>
+      </c>
       <c r="B11" s="0" t="s">
         <v>269</v>
       </c>
@@ -3136,10 +3139,10 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="E39 D7"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3320,6 +3323,9 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>5275</v>
+      </c>
       <c r="B9" s="0" t="s">
         <v>304</v>
       </c>
@@ -3355,10 +3361,10 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="E39 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3431,10 +3437,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="E39 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3564,10 +3570,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="E39 D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3631,10 +3637,10 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E39 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.36"/>
   </cols>
@@ -3798,11 +3804,11 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="E39 B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3968,10 +3974,10 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="1" sqref="E39 J9"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4088,11 +4094,11 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4675,6 +4681,9 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>5276</v>
+      </c>
       <c r="B30" s="0" t="s">
         <v>497</v>
       </c>
@@ -4689,6 +4698,9 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>5279</v>
+      </c>
       <c r="B31" s="0" t="s">
         <v>501</v>
       </c>
@@ -4706,6 +4718,9 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>5281</v>
+      </c>
       <c r="B32" s="0" t="s">
         <v>506</v>
       </c>
@@ -4723,6 +4738,9 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>5283</v>
+      </c>
       <c r="B33" s="0" t="s">
         <v>510</v>
       </c>
@@ -4737,6 +4755,9 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>5286</v>
+      </c>
       <c r="B34" s="0" t="s">
         <v>514</v>
       </c>
@@ -4754,6 +4775,9 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>5289</v>
+      </c>
       <c r="B35" s="0" t="s">
         <v>518</v>
       </c>
@@ -4771,6 +4795,9 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>5292</v>
+      </c>
       <c r="B36" s="0" t="s">
         <v>522</v>
       </c>
@@ -4788,6 +4815,9 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>5295</v>
+      </c>
       <c r="B37" s="0" t="s">
         <v>527</v>
       </c>
@@ -4805,6 +4835,9 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>5298</v>
+      </c>
       <c r="B38" s="0" t="s">
         <v>532</v>
       </c>
@@ -4856,10 +4889,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="E39 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4926,10 +4959,10 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="1" sqref="E39 E11"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5021,6 +5054,9 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5246</v>
+      </c>
       <c r="B5" s="0" t="s">
         <v>50</v>
       </c>
@@ -5041,6 +5077,9 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5249</v>
+      </c>
       <c r="B6" s="0" t="s">
         <v>50</v>
       </c>
@@ -5109,10 +5148,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="E39 E6"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5198,6 +5237,9 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5252</v>
+      </c>
       <c r="B5" s="0" t="s">
         <v>69</v>
       </c>
@@ -5232,11 +5274,11 @@
   </sheetPr>
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="E39 B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
   </cols>
@@ -5425,6 +5467,9 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>5253</v>
+      </c>
       <c r="B10" s="0" t="s">
         <v>111</v>
       </c>
@@ -5442,6 +5487,9 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>5256</v>
+      </c>
       <c r="B11" s="0" t="s">
         <v>115</v>
       </c>
@@ -5462,6 +5510,9 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5261</v>
+      </c>
       <c r="B12" s="0" t="s">
         <v>120</v>
       </c>
@@ -5482,6 +5533,9 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5264</v>
+      </c>
       <c r="B13" s="0" t="s">
         <v>125</v>
       </c>
@@ -5499,6 +5553,9 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>5267</v>
+      </c>
       <c r="B14" s="0" t="s">
         <v>130</v>
       </c>
@@ -5593,10 +5650,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E39 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5663,10 +5720,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="E39 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5784,10 +5841,10 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="E39 E3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/sheets/household.xlsx
+++ b/sheets/household.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="21"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="coffee-makers" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,6 +30,8 @@
     <sheet name="fragrances" sheetId="20" state="visible" r:id="rId21"/>
     <sheet name="kettles" sheetId="21" state="visible" r:id="rId22"/>
     <sheet name="other" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="door-mat" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="furniture" sheetId="24" state="visible" r:id="rId25"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="582">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -529,6 +531,22 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.ikea.com/us/en/p/ikea-365-food-container-with-lid-square-glass-80444946/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citrus squeezer, transparent/yellow stainless steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether it’s small lemons or big oranges, this squeezer has two different inserts to help you get every drop out of your halved citrus fruits.
+You can squeeze any type of citrus fruit by changing the different inserts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ae/en/images/products/spritta-citrus-squeezer-transparent-yellow-stainless-steel__0713130_pe729274_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ae/en/images/products/spritta-citrus-squeezer-transparent-yellow-stainless-steel__0894737_pe610199_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ae/en/p/spritta-citrus-squeezer-transparent-yellow-stainless-steel-00152164/</t>
   </si>
   <si>
     <t xml:space="preserve">Paper napkin, dark red, 40x40 cm</t>
@@ -909,6 +927,19 @@
     <t xml:space="preserve">https://www.amazon.ca/Scotchgard-Stainless-Cleaner-Protect-Appliances/dp/B0845YN4QS?th=1</t>
   </si>
   <si>
+    <t xml:space="preserve">Dust pan and brush, assorted colors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width: 8 ¼ in
+Width: 21 cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images.prom.ua/2922676096_w640_h640_nabor-dlya-uborki.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea-club.org/cache/zoo_images/d/dcfd987d8f2202453bd3ec97df9d945c.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">8 Pack Unscented candles, white, 13 ¾ "</t>
   </si>
   <si>
@@ -1186,6 +1217,22 @@
     <t xml:space="preserve">https://www.ikea.com/ie/en/p/aromatisk-lantern-for-tealight-red-20541455/</t>
   </si>
   <si>
+    <t xml:space="preserve">Tealight holder, light pink, 8 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The glow from candles can add atmosphere to any moment – they can light up dark mornings, make a one-on-one dinner more romantic or make a room feel warmer and more inviting.
+The warm light from the candle shines decoratively through the pattern on the candle holder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ae/en/images/products/samverka-tealight-holder-light-pink__1010633_pe828189_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ae/en/images/products/samverka-tealight-holder-light-pink__1010634_pe828191_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/ae/en/p/samverka-tealight-holder-light-pink-90517862/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Throw, off-white, 130x170 cm</t>
   </si>
   <si>
@@ -1265,6 +1312,21 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.ikea.cn/cn/en/p/aromatisk-decoration-leaf-red-80541872/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spoon Rests, Kitchen Utensil Holder, Plastic Spoon Holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use for kitchen utensils, table cutlery. To lay down your spoon, brush, utensils and to keep your stove top, tabletop clean. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71ALkITkrpL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81iKt0XPaoL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Youngever-Plastic-Kitchen-Utensil-Holders/dp/B09KFYJMRH</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Torch 31 20,000 lm Ultra-Bright Search Light</t>
@@ -1990,6 +2052,91 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.ikea.com/pt/en/p/knoppaeng-frame-white-20427290/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foldable Utility Cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Foldable Utility Cart is made to get the job done. Features lightweight plastic, durable rolling rubber wheels and rust-proof aluminum handles. An impressive 80lbs (35kg) loading capacity. Designed to fold flat when not in use for easy storage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0036/4806/1509/products/c1bf8bee8280ff894ccc6b8873959b940ecf4ca2_square2901646_1_1000x1000.jpg?v=1675234169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0036/4806/1509/products/302fbba686516e9280a419fbf5e64e2e57f49fb4_square2901646_2_1000x1000.jpg?v=1675234169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crownline Insect Killer – IK-236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSECT KILLER: Physical insect killer. Works right out of the box – Just plug in the power cord, light attracts mosquitos, flies, moths, and other insects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crownline.ae/wp-content/uploads/2021/02/crown-insect-killer-dubai-uae-600x600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crownline.ae/product/crownline-insect-killer-ik-236/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crownline Ik-235 Electric Insect Killer 220-240V, 50/60 Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Special Designed Black Light Tube (Ultra-Violet Rays) Is Completely Harmless To Human Bodies And Pets. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81kGw-AIpsL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/91NkZYe3tCL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/Crownline-Electric-220-240V-manufacturer-warranty/dp/B08P1G1HNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polyethylene Food Pan Transport Carrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omcan’s Food Pan Transport Carrier is the ideal solution to store full-size, 1/2, and 1/3 size pans of hot or cold food
+Comes with durable latch and air tight gaskets to maintain safe food temperatures for hours with no need for electricity
+Technical
+Depth of Food Pan (GN1/1) 2 1/2", 4", 6", 8"
+INNER DIMENSIONS (DWH): 13.2 x 21" x 19.5"
+OUTER DIMENSIONS (DWH): 18.8" x 26.8"" x 24"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://omcan.com/wp-content/uploads/product_images/medium/80184%20_Food%20Pan%20Transport%20Carrier.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://omcan.com/product/polyethylene-food-pan-transport-carrier/#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door mat, indoor, handmade/braided natural, 40x60 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This handmade doormat with thick, chunky weave is made of natural coir giving a warm, organic feel to your hallway. The material is robust and will endure all your comings and goings.
+Add character to the entrance of your home by choosing a door mat with a pattern or different colours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/stavreby-door-mat-indoor-handmade-braided-natural__0834501_pe778327_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/stavreby-door-mat-indoor-handmade-braided-natural__0834502_pe778326_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active sit / Stand support, Office seat, Stool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moves you when seated. This sit/stand support helps you to sit actively. A smart mechanism keeps your body in constant motion, strengthens muscles and the spine – and gives you a naturally healthy posture. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ikeacy.azureedge.net/images/1860x1860/2/variantimages/30445774/0.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ikeacy.azureedge.net/images/1860x1860/2/variantimages/30445774/6.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com.cy/en/products/chairs/desk-chairs/desk-stools/lidkullen-active-sit-stand-support/30445774/</t>
   </si>
 </sst>
 </file>
@@ -2118,11 +2265,11 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2250,11 +2397,11 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2284,22 +2431,22 @@
         <v>4697</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2307,22 +2454,22 @@
         <v>4700</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2343,11 +2490,11 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2377,22 +2524,22 @@
         <v>4723</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2400,22 +2547,22 @@
         <v>4726</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2436,11 +2583,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2470,22 +2617,22 @@
         <v>4729</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2506,11 +2653,11 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2540,22 +2687,22 @@
         <v>4732</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2563,22 +2710,22 @@
         <v>4735</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2000000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2621,11 +2768,11 @@
   </sheetPr>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2655,19 +2802,19 @@
         <v>4607</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2675,22 +2822,22 @@
         <v>4610</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2698,16 +2845,16 @@
         <v>4611</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2715,22 +2862,22 @@
         <v>4614</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2738,25 +2885,25 @@
         <v>4617</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2764,25 +2911,44 @@
         <v>4620</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5472</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2854,11 +3020,11 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2888,22 +3054,22 @@
         <v>4623</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>80000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2911,19 +3077,19 @@
         <v>4625</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2931,19 +3097,19 @@
         <v>4627</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2951,16 +3117,16 @@
         <v>4629</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2968,22 +3134,22 @@
         <v>4632</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2991,19 +3157,19 @@
         <v>4634</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>170000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3011,22 +3177,22 @@
         <v>4637</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3034,22 +3200,22 @@
         <v>4644</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3057,19 +3223,19 @@
         <v>4646</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3077,16 +3243,16 @@
         <v>5268</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3136,13 +3302,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3172,22 +3338,22 @@
         <v>4738</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3195,16 +3361,16 @@
         <v>4739</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3212,22 +3378,22 @@
         <v>4742</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3235,22 +3401,22 @@
         <v>4745</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3258,22 +3424,22 @@
         <v>4748</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3281,22 +3447,22 @@
         <v>4751</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3304,22 +3470,22 @@
         <v>4754</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3327,19 +3493,42 @@
         <v>5275</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5475</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3360,11 +3549,11 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3394,22 +3583,22 @@
         <v>4759</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3434,13 +3623,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3470,19 +3659,19 @@
         <v>4762</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="33.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3490,19 +3679,19 @@
         <v>4763</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,22 +3699,22 @@
         <v>4766</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3533,22 +3722,45 @@
         <v>4769</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>333</v>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5478</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3569,11 +3781,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3603,19 +3815,19 @@
         <v>4774</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1000000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3636,11 +3848,11 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.36"/>
   </cols>
@@ -3804,11 +4016,11 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3838,19 +4050,19 @@
         <v>4776</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3858,19 +4070,19 @@
         <v>4778</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3878,19 +4090,19 @@
         <v>4780</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3898,19 +4110,19 @@
         <v>4782</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3918,19 +4130,19 @@
         <v>4784</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3941,10 +4153,10 @@
         <v>90000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3952,7 +4164,7 @@
         <v>4787</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3973,11 +4185,11 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4007,22 +4219,22 @@
         <v>4790</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4030,19 +4242,19 @@
         <v>4793</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4050,22 +4262,22 @@
         <v>4796</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4094,11 +4306,11 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4128,19 +4340,19 @@
         <v>4799</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4148,22 +4360,22 @@
         <v>4802</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4171,19 +4383,19 @@
         <v>4805</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4191,19 +4403,19 @@
         <v>4808</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4211,19 +4423,19 @@
         <v>4810</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4231,19 +4443,19 @@
         <v>4812</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4251,19 +4463,19 @@
         <v>4815</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4271,19 +4483,19 @@
         <v>4818</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>80000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4291,19 +4503,19 @@
         <v>4821</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4311,22 +4523,22 @@
         <v>4824</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4334,19 +4546,19 @@
         <v>4827</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4354,19 +4566,19 @@
         <v>4830</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4374,19 +4586,19 @@
         <v>4833</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4394,19 +4606,19 @@
         <v>4836</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4414,19 +4626,19 @@
         <v>4837</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4434,19 +4646,19 @@
         <v>4839</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>70000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4454,13 +4666,13 @@
         <v>4841</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4468,19 +4680,19 @@
         <v>4844</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4488,22 +4700,22 @@
         <v>4846</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4511,10 +4723,10 @@
         <v>4847</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>160000</v>
@@ -4525,22 +4737,22 @@
         <v>4850</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4548,10 +4760,10 @@
         <v>4851</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4559,19 +4771,19 @@
         <v>4857</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4579,19 +4791,19 @@
         <v>4859</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4599,19 +4811,19 @@
         <v>4862</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4619,19 +4831,19 @@
         <v>4865</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4639,22 +4851,22 @@
         <v>4868</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4662,22 +4874,22 @@
         <v>4871</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4685,16 +4897,16 @@
         <v>5276</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4702,19 +4914,19 @@
         <v>5279</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4722,19 +4934,19 @@
         <v>5281</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>70000</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4742,16 +4954,16 @@
         <v>5283</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4759,19 +4971,19 @@
         <v>5286</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4779,19 +4991,19 @@
         <v>5289</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4799,19 +5011,19 @@
         <v>5292</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4819,19 +5031,19 @@
         <v>5295</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4839,25 +5051,95 @@
         <v>5298</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>5481</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>5483</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>5486</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>220000</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>5488</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4881,6 +5163,143 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="43.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5491</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>576</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5494</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>581</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -4888,11 +5307,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4958,11 +5377,11 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5147,11 +5566,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5274,11 +5693,11 @@
   </sheetPr>
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
   </cols>
@@ -5572,7 +5991,29 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>5469</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5649,11 +6090,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5683,22 +6124,22 @@
         <v>4694</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>25000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5719,11 +6160,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5753,13 +6194,13 @@
         <v>4701</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5767,19 +6208,19 @@
         <v>4704</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5787,19 +6228,19 @@
         <v>4707</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5807,19 +6248,19 @@
         <v>4713</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5840,11 +6281,11 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5874,22 +6315,22 @@
         <v>4716</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5897,19 +6338,19 @@
         <v>4717</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
